--- a/biology/Mycologie/Suillus/Suillus.xlsx
+++ b/biology/Mycologie/Suillus/Suillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillus est un genre de champignons basidiomycètes classé autrefois de la famille des Boletaceae, maintenant dans la famille des Suillaceae.
 En latin, suillus signifie « porcin ». On pourrait les qualifier de « bolets mous ». Ils poussent essentiellement sous les conifères. Plusieurs d'entre eux portent un voile partiel, qui deviendra un anneau ou un reste d'anneau. Dans l'ensemble, ils sont comestibles mais souvent médiocres.
 De par et leur aspect mou et visqueux, leur faible intérêt culinaire et leur lien avec les conifères, les espèces de ce genre reçoivent souvent, à tort et par abus de langage, l'appellation de « cèpe des pins », nom qui ne devrait revenir qu'à Boletus pinophilus, qui n'est pas du genre Suillus.
-Les espèces de ce genre sont comestibles mais la cuticule de leur chapeau est visqueuse, amère et laxative, et les tubes trop spongieux une fois cuits, si bien qu'ils sont à enlever avant la cuisson[1]. Leur consommation doit être modérée car ils peuvent concentrer certains radionucléides (césium 137 des retombées de Tchernobyl par exemple) et les remonter en surface, via leur chapeau[2],[3],[4].
+Les espèces de ce genre sont comestibles mais la cuticule de leur chapeau est visqueuse, amère et laxative, et les tubes trop spongieux une fois cuits, si bien qu'ils sont à enlever avant la cuisson. Leur consommation doit être modérée car ils peuvent concentrer certains radionucléides (césium 137 des retombées de Tchernobyl par exemple) et les remonter en surface, via leur chapeau.
 Les espèces de ce genre les plus communes chaque saison en France sont Suillus bovinus, Suillus luteus, Suillus granulatus, Suillus grevillei et Suillus collinitus.
 </t>
         </is>
@@ -515,7 +527,9 @@
           <t>Définition du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Suillus Micheli ex S. F. Gray
 Sporophore
@@ -553,10 +567,48 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Récemment le genre Suillus a été réintégré dans les Boletales où un clade des Suillineae les regroupe. Il semble bien que deux branches se divisent dans l'hémisphère nord[5].
-Classification linnéenne
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Récemment le genre Suillus a été réintégré dans les Boletales où un clade des Suillineae les regroupe. Il semble bien que deux branches se divisent dans l'hémisphère nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suillus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification linnéenne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Suillus acerbus
 Suillus acidus
 Suillus americanus
@@ -587,8 +639,43 @@
 Suillus tridentinus
 Suillus variegatus
 Suillus viscidus
-Phylogramme du Clade des Suillineae
-Les dernières recherches semblent intégrer les genres Gomphidius et Truncocolumella, aux genres Rhizopogon et Suillus qui développerait un clade européen et un clade américain[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogramme du Clade des Suillineae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les dernières recherches semblent intégrer les genres Gomphidius et Truncocolumella, aux genres Rhizopogon et Suillus qui développerait un clade européen et un clade américain
 Boletales
 Suillaceae - Clade des Suillineae
 Gomphidius subroseus, USA
